--- a/Data/aearep-1538/candidatepackages.xlsx
+++ b/Data/aearep-1538/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,27 +25,24 @@
     <t>winsor2</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>winsor</t>
   </si>
   <si>
+    <t>ivreg2</t>
+  </si>
+  <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>ivreg2</t>
+    <t>egenmore</t>
   </si>
   <si>
     <t>unique</t>
   </si>
   <si>
-    <t>egenmore</t>
-  </si>
-  <si>
     <t>ranktest</t>
   </si>
   <si>
@@ -64,19 +61,19 @@
     <t>table1</t>
   </si>
   <si>
-    <t>lassopack</t>
-  </si>
-  <si>
     <t>pdslasso</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>mediation</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>mediation</t>
+    <t>title</t>
   </si>
   <si>
     <t>leebounds</t>
@@ -85,15 +82,12 @@
     <t>project</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -112,43 +106,40 @@
     <t>overlay</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>samplesize</t>
   </si>
   <si>
-    <t>effects</t>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
+    <t>tr</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>tr</t>
+    <t>try</t>
   </si>
   <si>
     <t>dependencies</t>
@@ -169,9 +160,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1538</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1538/125461/replication_materials_AEJApp-2020-0025</t>
   </si>
   <si>
@@ -181,21 +169,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1538/125461/replication_materials_AEJApp-2020-0025/prepfiles</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1538/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>analysis_appendices.do</t>
   </si>
   <si>
@@ -263,9 +239,6 @@
   </si>
   <si>
     <t>9_clean_administrative_cohort.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -309,7 +282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -317,13 +290,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -355,7 +328,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -367,7 +340,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -379,7 +352,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -391,7 +364,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -403,7 +376,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -415,7 +388,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -427,7 +400,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -439,7 +412,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -451,7 +424,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -463,7 +436,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -475,7 +448,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -487,7 +460,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -499,7 +472,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -511,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -523,7 +496,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -535,7 +508,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -547,10 +520,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D20"/>
     </row>
@@ -559,10 +532,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>309</v>
+        <v>522</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.17256198823451996</v>
       </c>
       <c r="D21"/>
     </row>
@@ -571,10 +544,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>468</v>
+        <v>547</v>
       </c>
       <c r="C22">
-        <v>0.15517240762710571</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D22"/>
     </row>
@@ -583,10 +556,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="C23">
-        <v>0.16677719354629517</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D23"/>
     </row>
@@ -595,10 +568,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C24">
-        <v>0.18700265884399414</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D24"/>
     </row>
@@ -607,10 +580,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="C25">
-        <v>0.18733422458171844</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D25"/>
     </row>
@@ -619,10 +592,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C26">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D26"/>
     </row>
@@ -631,10 +604,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>606</v>
+        <v>893</v>
       </c>
       <c r="C27">
-        <v>0.20092837512493134</v>
+        <v>0.29520660638809204</v>
       </c>
       <c r="D27"/>
     </row>
@@ -643,10 +616,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>745</v>
+        <v>987</v>
       </c>
       <c r="C28">
-        <v>0.24701590836048126</v>
+        <v>0.32628098130226135</v>
       </c>
       <c r="D28"/>
     </row>
@@ -655,10 +628,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>936</v>
+        <v>998</v>
       </c>
       <c r="C29">
-        <v>0.31034481525421143</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D29"/>
     </row>
@@ -667,10 +640,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>984</v>
+        <v>1097</v>
       </c>
       <c r="C30">
-        <v>0.32625994086265564</v>
+        <v>0.36264464259147644</v>
       </c>
       <c r="D30"/>
     </row>
@@ -679,10 +652,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>985</v>
+        <v>1125</v>
       </c>
       <c r="C31">
-        <v>0.32659152150154114</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D31"/>
     </row>
@@ -691,10 +664,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1094</v>
+        <v>1306</v>
       </c>
       <c r="C32">
-        <v>0.36273208260536194</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D32"/>
     </row>
@@ -703,10 +676,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1124</v>
+        <v>1414</v>
       </c>
       <c r="C33">
-        <v>0.37267905473709106</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D33"/>
     </row>
@@ -715,10 +688,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1194</v>
+        <v>1428</v>
       </c>
       <c r="C34">
-        <v>0.39588859677314758</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D34"/>
     </row>
@@ -727,10 +700,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1423</v>
+        <v>1497</v>
       </c>
       <c r="C35">
-        <v>0.47181698679924011</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D35"/>
     </row>
@@ -739,10 +712,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1472</v>
+        <v>1596</v>
       </c>
       <c r="C36">
-        <v>0.48806366324424744</v>
+        <v>0.52760332822799683</v>
       </c>
       <c r="D36"/>
     </row>
@@ -751,10 +724,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1553</v>
+        <v>1658</v>
       </c>
       <c r="C37">
-        <v>0.51492041349411011</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D37"/>
     </row>
@@ -763,10 +736,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1568</v>
+        <v>1724</v>
       </c>
       <c r="C38">
-        <v>0.51989388465881348</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D38"/>
     </row>
@@ -775,10 +748,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1660</v>
+        <v>1796</v>
       </c>
       <c r="C39">
-        <v>0.55039787292480469</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D39"/>
     </row>
@@ -787,10 +760,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1793</v>
+        <v>1975</v>
       </c>
       <c r="C40">
-        <v>0.59449601173400879</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D40"/>
     </row>
@@ -799,10 +772,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1798</v>
+        <v>1993</v>
       </c>
       <c r="C41">
-        <v>0.5961538553237915</v>
+        <v>0.65884298086166382</v>
       </c>
       <c r="D41"/>
     </row>
@@ -811,10 +784,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1817</v>
+        <v>2057</v>
       </c>
       <c r="C42">
-        <v>0.60245358943939209</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="D42"/>
     </row>
@@ -823,10 +796,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1859</v>
+        <v>2243</v>
       </c>
       <c r="C43">
-        <v>0.61637932062149048</v>
+        <v>0.74148762226104736</v>
       </c>
       <c r="D43"/>
     </row>
@@ -835,48 +808,12 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1890</v>
+        <v>2436</v>
       </c>
       <c r="C44">
-        <v>0.62665784358978271</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D44"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1951</v>
-      </c>
-      <c r="C45">
-        <v>0.64688330888748169</v>
-      </c>
-      <c r="D45"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>2336</v>
-      </c>
-      <c r="C46">
-        <v>0.77453583478927612</v>
-      </c>
-      <c r="D46"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>2424</v>
-      </c>
-      <c r="C47">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D47"/>
     </row>
   </sheetData>
 </worksheet>
@@ -884,231 +821,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
